--- a/po_analysis_by_asin/B08YMY8ZZ3_po_data.xlsx
+++ b/po_analysis_by_asin/B08YMY8ZZ3_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45355</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>36</v>
@@ -460,9 +460,105 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45362</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B3" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B15" t="n">
         <v>36</v>
       </c>
     </row>
@@ -477,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,9 +595,81 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45352</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45016.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45077.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45107.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45138.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B11" t="n">
         <v>72</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B08YMY8ZZ3_po_data.xlsx
+++ b/po_analysis_by_asin/B08YMY8ZZ3_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,22 +546,6 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45361.99999999999</v>
-      </c>
-      <c r="B14" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45368.99999999999</v>
-      </c>
-      <c r="B15" t="n">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -573,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,14 +649,6 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B11" t="n">
-        <v>72</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B08YMY8ZZ3_po_data.xlsx
+++ b/po_analysis_by_asin/B08YMY8ZZ3_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -573,7 +574,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -647,6 +648,327 @@
       </c>
       <c r="B10" t="n">
         <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>28</v>
+      </c>
+      <c r="C2" t="n">
+        <v>17.38128836454539</v>
+      </c>
+      <c r="D2" t="n">
+        <v>39.15385321985648</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>29</v>
+      </c>
+      <c r="C3" t="n">
+        <v>17.76196731962122</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39.89071745149948</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C4" t="n">
+        <v>18.24031649550855</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40.59146961791262</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>30</v>
+      </c>
+      <c r="C5" t="n">
+        <v>19.04222330204231</v>
+      </c>
+      <c r="D5" t="n">
+        <v>41.39915812589631</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>31</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19.69962292943372</v>
+      </c>
+      <c r="D6" t="n">
+        <v>41.97496401197299</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>31</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19.94659385632264</v>
+      </c>
+      <c r="D7" t="n">
+        <v>42.31902496375488</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>32</v>
+      </c>
+      <c r="C8" t="n">
+        <v>19.40028241980314</v>
+      </c>
+      <c r="D8" t="n">
+        <v>43.26961707782387</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>32</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20.93674011260029</v>
+      </c>
+      <c r="D9" t="n">
+        <v>44.45718012186728</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>34</v>
+      </c>
+      <c r="C10" t="n">
+        <v>22.81007565075111</v>
+      </c>
+      <c r="D10" t="n">
+        <v>44.7412775883313</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>35</v>
+      </c>
+      <c r="C11" t="n">
+        <v>23.48774779457739</v>
+      </c>
+      <c r="D11" t="n">
+        <v>47.12768439984205</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>36</v>
+      </c>
+      <c r="C12" t="n">
+        <v>24.76747240911198</v>
+      </c>
+      <c r="D12" t="n">
+        <v>47.11515568207246</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>36</v>
+      </c>
+      <c r="C13" t="n">
+        <v>24.5988278721513</v>
+      </c>
+      <c r="D13" t="n">
+        <v>46.70205857680285</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45284.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>36</v>
+      </c>
+      <c r="C14" t="n">
+        <v>24.31828601748702</v>
+      </c>
+      <c r="D14" t="n">
+        <v>46.86730446621303</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>36</v>
+      </c>
+      <c r="C15" t="n">
+        <v>24.15149393077052</v>
+      </c>
+      <c r="D15" t="n">
+        <v>47.51557601570715</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>36</v>
+      </c>
+      <c r="C16" t="n">
+        <v>25.45561112480019</v>
+      </c>
+      <c r="D16" t="n">
+        <v>48.00330310046218</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>37</v>
+      </c>
+      <c r="C17" t="n">
+        <v>25.44411656752982</v>
+      </c>
+      <c r="D17" t="n">
+        <v>48.03420265103889</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>37</v>
+      </c>
+      <c r="C18" t="n">
+        <v>25.5634721660227</v>
+      </c>
+      <c r="D18" t="n">
+        <v>48.80020999610412</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>37</v>
+      </c>
+      <c r="C19" t="n">
+        <v>25.7122054287423</v>
+      </c>
+      <c r="D19" t="n">
+        <v>48.16591922806357</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>37</v>
+      </c>
+      <c r="C20" t="n">
+        <v>26.01644071779608</v>
+      </c>
+      <c r="D20" t="n">
+        <v>48.41240954147558</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>37</v>
+      </c>
+      <c r="C21" t="n">
+        <v>26.26697850625076</v>
+      </c>
+      <c r="D21" t="n">
+        <v>48.51022840936803</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B08YMY8ZZ3_po_data.xlsx
+++ b/po_analysis_by_asin/B08YMY8ZZ3_po_data.xlsx
@@ -661,7 +661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,16 +680,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -698,12 +688,6 @@
       <c r="B2" t="n">
         <v>28</v>
       </c>
-      <c r="C2" t="n">
-        <v>17.38128836454539</v>
-      </c>
-      <c r="D2" t="n">
-        <v>39.15385321985648</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -712,12 +696,6 @@
       <c r="B3" t="n">
         <v>29</v>
       </c>
-      <c r="C3" t="n">
-        <v>17.76196731962122</v>
-      </c>
-      <c r="D3" t="n">
-        <v>39.89071745149948</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -726,12 +704,6 @@
       <c r="B4" t="n">
         <v>30</v>
       </c>
-      <c r="C4" t="n">
-        <v>18.24031649550855</v>
-      </c>
-      <c r="D4" t="n">
-        <v>40.59146961791262</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -740,12 +712,6 @@
       <c r="B5" t="n">
         <v>30</v>
       </c>
-      <c r="C5" t="n">
-        <v>19.04222330204231</v>
-      </c>
-      <c r="D5" t="n">
-        <v>41.39915812589631</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -754,12 +720,6 @@
       <c r="B6" t="n">
         <v>31</v>
       </c>
-      <c r="C6" t="n">
-        <v>19.69962292943372</v>
-      </c>
-      <c r="D6" t="n">
-        <v>41.97496401197299</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -768,12 +728,6 @@
       <c r="B7" t="n">
         <v>31</v>
       </c>
-      <c r="C7" t="n">
-        <v>19.94659385632264</v>
-      </c>
-      <c r="D7" t="n">
-        <v>42.31902496375488</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -782,12 +736,6 @@
       <c r="B8" t="n">
         <v>32</v>
       </c>
-      <c r="C8" t="n">
-        <v>19.40028241980314</v>
-      </c>
-      <c r="D8" t="n">
-        <v>43.26961707782387</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -796,12 +744,6 @@
       <c r="B9" t="n">
         <v>32</v>
       </c>
-      <c r="C9" t="n">
-        <v>20.93674011260029</v>
-      </c>
-      <c r="D9" t="n">
-        <v>44.45718012186728</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -810,12 +752,6 @@
       <c r="B10" t="n">
         <v>34</v>
       </c>
-      <c r="C10" t="n">
-        <v>22.81007565075111</v>
-      </c>
-      <c r="D10" t="n">
-        <v>44.7412775883313</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -824,12 +760,6 @@
       <c r="B11" t="n">
         <v>35</v>
       </c>
-      <c r="C11" t="n">
-        <v>23.48774779457739</v>
-      </c>
-      <c r="D11" t="n">
-        <v>47.12768439984205</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -838,12 +768,6 @@
       <c r="B12" t="n">
         <v>36</v>
       </c>
-      <c r="C12" t="n">
-        <v>24.76747240911198</v>
-      </c>
-      <c r="D12" t="n">
-        <v>47.11515568207246</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -852,12 +776,6 @@
       <c r="B13" t="n">
         <v>36</v>
       </c>
-      <c r="C13" t="n">
-        <v>24.5988278721513</v>
-      </c>
-      <c r="D13" t="n">
-        <v>46.70205857680285</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -866,12 +784,6 @@
       <c r="B14" t="n">
         <v>36</v>
       </c>
-      <c r="C14" t="n">
-        <v>24.31828601748702</v>
-      </c>
-      <c r="D14" t="n">
-        <v>46.86730446621303</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -880,12 +792,6 @@
       <c r="B15" t="n">
         <v>36</v>
       </c>
-      <c r="C15" t="n">
-        <v>24.15149393077052</v>
-      </c>
-      <c r="D15" t="n">
-        <v>47.51557601570715</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -894,12 +800,6 @@
       <c r="B16" t="n">
         <v>36</v>
       </c>
-      <c r="C16" t="n">
-        <v>25.45561112480019</v>
-      </c>
-      <c r="D16" t="n">
-        <v>48.00330310046218</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -908,12 +808,6 @@
       <c r="B17" t="n">
         <v>37</v>
       </c>
-      <c r="C17" t="n">
-        <v>25.44411656752982</v>
-      </c>
-      <c r="D17" t="n">
-        <v>48.03420265103889</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -922,12 +816,6 @@
       <c r="B18" t="n">
         <v>37</v>
       </c>
-      <c r="C18" t="n">
-        <v>25.5634721660227</v>
-      </c>
-      <c r="D18" t="n">
-        <v>48.80020999610412</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -936,12 +824,6 @@
       <c r="B19" t="n">
         <v>37</v>
       </c>
-      <c r="C19" t="n">
-        <v>25.7122054287423</v>
-      </c>
-      <c r="D19" t="n">
-        <v>48.16591922806357</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -950,12 +832,6 @@
       <c r="B20" t="n">
         <v>37</v>
       </c>
-      <c r="C20" t="n">
-        <v>26.01644071779608</v>
-      </c>
-      <c r="D20" t="n">
-        <v>48.41240954147558</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -963,12 +839,6 @@
       </c>
       <c r="B21" t="n">
         <v>37</v>
-      </c>
-      <c r="C21" t="n">
-        <v>26.26697850625076</v>
-      </c>
-      <c r="D21" t="n">
-        <v>48.51022840936803</v>
       </c>
     </row>
   </sheetData>
